--- a/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
+++ b/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VA_4折交叉验证" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,16 +30,22 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1278,65 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>社区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>情感词处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>最后修正</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -1357,29 +1305,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>情感词处理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>社区</t>
     </r>
     <r>
       <rPr>
@@ -1387,17 +1315,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>最后修正</t>
+      <t>_最后修正</t>
     </r>
   </si>
   <si>
@@ -1416,9 +1336,54 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>社区</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_情感词处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>社区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_最后修正</t>
+    </r>
+  </si>
+  <si>
+    <t>knn_社区</t>
   </si>
   <si>
     <t>[ [ 1</t>
@@ -1680,7 +1645,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1755,6 +1720,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1867,7 +1836,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.10526315789474"/>
@@ -14077,7 +14046,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5465587044534"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
@@ -22400,7 +22369,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.10526315789474"/>
@@ -24619,17 +24588,17 @@
   <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.10526315789474"/>
@@ -26675,16 +26644,16 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26703,7 +26672,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -27631,17 +27600,17 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27663,7 +27632,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -28440,7 +28409,7 @@
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="D30:D31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28462,18 +28431,18 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.79757085020243"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28495,7 +28464,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -28566,7 +28535,7 @@
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="12" t="s">
         <v>369</v>
       </c>
       <c r="E3" s="0"/>
@@ -28620,7 +28589,7 @@
       <c r="C4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>370</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -28673,7 +28642,7 @@
       <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="12" t="s">
         <v>371</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -28725,7 +28694,7 @@
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="12" t="s">
         <v>372</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -28785,6 +28754,7 @@
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
@@ -28808,6 +28778,7 @@
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="K11" s="0"/>
       <c r="R11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28909,7 +28880,7 @@
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="D30:D31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28936,7 +28907,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
+++ b/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VA_4折交叉验证" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,6 @@
     <sheet name="topK_KM_情感词处理_最后修正_4折交叉验证" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="topK_KM_情感词处理_最后修正_5折交叉验证" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="knn_社区_情感词处理_最后修正_5折交叉验证_2" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
@@ -31,21 +30,27 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="373">
   <si>
     <t>参数调节</t>
   </si>
@@ -1271,218 +1276,16 @@
     <t>topk</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>社区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>情感词处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_最后修正</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>社区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_情感词处理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>社区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_最后修正</t>
-    </r>
+    <t>knn_社区_情感词处理_最后修正</t>
+  </si>
+  <si>
+    <t>knn_社区_情感词处理</t>
+  </si>
+  <si>
+    <t>knn_社区_最后修正</t>
   </si>
   <si>
     <t>knn_社区</t>
-  </si>
-  <si>
-    <t>[ [ 1</t>
-  </si>
-  <si>
-    <t>鄙</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>[ 6</t>
-  </si>
-  <si>
-    <t>帅</t>
-  </si>
-  <si>
-    <t>[ 3</t>
-  </si>
-  <si>
-    <t>灾</t>
-  </si>
-  <si>
-    <t>[ 1</t>
-  </si>
-  <si>
-    <t>保卫</t>
-  </si>
-  <si>
-    <t>[ 8</t>
-  </si>
-  <si>
-    <t>庆贺</t>
-  </si>
-  <si>
-    <t>乱</t>
-  </si>
-  <si>
-    <t>义</t>
-  </si>
-  <si>
-    <t>[ 2</t>
-  </si>
-  <si>
-    <t>丧胆</t>
-  </si>
-  <si>
-    <t>[ 5</t>
-  </si>
-  <si>
-    <t>人心惶惶</t>
-  </si>
-  <si>
-    <t>[ 7</t>
-  </si>
-  <si>
-    <t>击</t>
-  </si>
-  <si>
-    <t>怒目</t>
-  </si>
-  <si>
-    <t>[ 0</t>
-  </si>
-  <si>
-    <t>枉然</t>
-  </si>
-  <si>
-    <t>贼</t>
-  </si>
-  <si>
-    <t>懦</t>
-  </si>
-  <si>
-    <t>孝</t>
-  </si>
-  <si>
-    <t>松懈</t>
-  </si>
-  <si>
-    <t>仁义</t>
-  </si>
-  <si>
-    <t>忠孝</t>
-  </si>
-  <si>
-    <t>烦</t>
-  </si>
-  <si>
-    <t>欺</t>
-  </si>
-  <si>
-    <t>] 去除掉：</t>
-  </si>
-  <si>
-    <t>[ [ 7</t>
-  </si>
-  <si>
-    <t>] 1597</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1589,12 +1392,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1835,17 +1632,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14046,10 +13843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.69230769230769"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22368,17 +22165,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24593,19 +24390,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6558704453441"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26649,11 +26446,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.331983805668"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27599,18 +27396,18 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.331983805668"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28430,19 +28227,19 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.331983805668"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28892,482 +28689,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85425101214575"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>0.346672606285</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.262079503843</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.259129011212</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.249331839705</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.239140432154</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.233807535018</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.220131605724</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.219418106868</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.208638940132</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.205977425604</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.200924816474</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.200609062907</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.198259727241</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.195836289084</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.192854326974</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.192171038441</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.188561825531</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.188496832527</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.183445943876</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.182316381197</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.205977425604</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>4.365995</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>5.804015</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1.634005</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1.404015</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
+++ b/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VA_4折交叉验证" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,11 +14,11 @@
     <sheet name="V_single_加老情感库_4折交叉验证" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="topK_KM_情感词处理_最后修正_4折交叉验证" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="topK_KM_情感词处理_最后修正_5折交叉验证" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="knn_社区_情感词处理_最后修正_5折交叉验证_2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="knn_社区_情感词处理_最后修正_5折交叉验证" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
@@ -31,26 +31,32 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证_2!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1442,7 +1448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1513,6 +1519,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1626,23 +1636,23 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,16 +13847,16 @@
   </sheetPr>
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5182186234818"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22159,23 +22169,23 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24384,25 +24394,25 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6558704453441"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="9.69230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26440,17 +26450,14 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.5182186234818"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27310,10 +27317,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="12" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="18" t="s">
         <v>351</v>
       </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="12" t="s">
@@ -27339,7 +27349,7 @@
       <c r="C30" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="D30" s="18" t="n">
+      <c r="D30" s="19" t="n">
         <v>0.86631</v>
       </c>
       <c r="E30" s="0" t="n">
@@ -27359,7 +27369,7 @@
       <c r="C31" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="0" t="n">
         <v>0.848955</v>
       </c>
@@ -27372,10 +27382,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:P24"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D30:D31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -27396,18 +27407,16 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5182186234818"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28198,7 +28207,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="G30" s="14"/>
     </row>
   </sheetData>
@@ -28227,19 +28236,17 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4493927125506"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.331983805668"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.331983805668"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8016194331984"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28386,7 +28393,7 @@
       <c r="C4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>370</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -28669,7 +28676,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="G30" s="14"/>
     </row>
   </sheetData>

--- a/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
+++ b/kmeans_knn/cross_validation/kmeans_knn_cv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VA_4折交叉验证" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,55 +20,55 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$S$28</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">VA_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">A_single_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">V_single_加老情感库_4折交叉验证!$A$2:$AB$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_4折交叉验证!$A$2:$P$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">topK_KM_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">knn_社区_情感词处理_最后修正_5折交叉验证!$A$2:$R$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="378">
   <si>
     <t>参数调节</t>
   </si>
@@ -106,7 +106,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>验证</t>
@@ -117,7 +117,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>1</t>
@@ -130,7 +130,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>验证</t>
@@ -141,7 +141,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>2</t>
@@ -154,7 +154,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>验证</t>
@@ -165,7 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>3</t>
@@ -178,7 +178,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>验证</t>
@@ -189,7 +189,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>4</t>
@@ -1258,7 +1258,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>验证</t>
@@ -1269,14 +1269,105 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>topK_KM_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>情感词处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>最后修正</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>topK_KM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>情感词处理</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>最后修正</t>
+    </r>
+  </si>
+  <si>
+    <t>topK_KM</t>
+  </si>
+  <si>
     <t>topK</t>
+  </si>
+  <si>
+    <t>topK </t>
   </si>
   <si>
     <t>topk</t>
@@ -1301,12 +1392,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1329,7 +1420,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1345,21 +1436,21 @@
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF99FF"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1367,14 +1458,14 @@
       <sz val="11"/>
       <color rgb="FF800000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1382,13 +1473,20 @@
       <sz val="11"/>
       <color rgb="FF579D1C"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF579D1C"/>
       <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1397,7 +1495,13 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1425,7 +1529,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1448,13 +1552,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1466,47 +1570,47 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1514,14 +1618,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,8 +1633,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1640,22 +1792,22 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1846,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>52</v>
       </c>
@@ -1866,7 +2018,7 @@
         <v>0.556494722583506</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>68</v>
       </c>
@@ -1952,7 +2104,7 @@
         <v>0.549444193496656</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>48</v>
       </c>
@@ -2038,7 +2190,7 @@
         <v>0.548520280899191</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>51</v>
       </c>
@@ -2124,7 +2276,7 @@
         <v>0.546015631496284</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>72</v>
       </c>
@@ -2210,7 +2362,7 @@
         <v>0.54164834769902</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>71</v>
       </c>
@@ -2296,7 +2448,7 @@
         <v>0.533289267547749</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>56</v>
       </c>
@@ -2382,7 +2534,7 @@
         <v>0.547907560237315</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
@@ -2468,7 +2620,7 @@
         <v>0.540414857289852</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>47</v>
       </c>
@@ -2554,7 +2706,7 @@
         <v>0.538737798703051</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>55</v>
       </c>
@@ -2640,7 +2792,7 @@
         <v>0.536304591187383</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>59</v>
       </c>
@@ -2726,7 +2878,7 @@
         <v>0.538142056650626</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>17</v>
       </c>
@@ -2812,7 +2964,7 @@
         <v>0.523621988657539</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>18</v>
       </c>
@@ -2898,7 +3050,7 @@
         <v>0.523621988657539</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>19</v>
       </c>
@@ -2984,7 +3136,7 @@
         <v>0.523621988657539</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>20</v>
       </c>
@@ -3070,7 +3222,7 @@
         <v>0.523621988657539</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>76</v>
       </c>
@@ -3156,7 +3308,7 @@
         <v>0.524875442151824</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>108</v>
       </c>
@@ -3242,7 +3394,7 @@
         <v>0.522523227882948</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>67</v>
       </c>
@@ -3328,7 +3480,7 @@
         <v>0.530185845032344</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>80</v>
       </c>
@@ -3414,7 +3566,7 @@
         <v>0.519440297380379</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>88</v>
       </c>
@@ -3500,7 +3652,7 @@
         <v>0.520731963400476</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>75</v>
       </c>
@@ -3586,7 +3738,7 @@
         <v>0.515219083599013</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>34</v>
       </c>
@@ -3672,7 +3824,7 @@
         <v>0.5171406047125</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>13</v>
       </c>
@@ -3758,7 +3910,7 @@
         <v>0.519752657275403</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>14</v>
       </c>
@@ -3844,7 +3996,7 @@
         <v>0.519752657275403</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>15</v>
       </c>
@@ -3930,7 +4082,7 @@
         <v>0.519752657275403</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>16</v>
       </c>
@@ -4016,7 +4168,7 @@
         <v>0.519752657275403</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>30</v>
       </c>
@@ -4102,7 +4254,7 @@
         <v>0.515450944023131</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>79</v>
       </c>
@@ -4188,7 +4340,7 @@
         <v>0.507533267771583</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>38</v>
       </c>
@@ -4274,7 +4426,7 @@
         <v>0.513856354532599</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>104</v>
       </c>
@@ -4360,7 +4512,7 @@
         <v>0.511727435476713</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>112</v>
       </c>
@@ -4446,7 +4598,7 @@
         <v>0.504685183745571</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>84</v>
       </c>
@@ -4532,7 +4684,7 @@
         <v>0.512135732944209</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>124</v>
       </c>
@@ -4618,7 +4770,7 @@
         <v>0.512208960466618</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>128</v>
       </c>
@@ -4704,7 +4856,7 @@
         <v>0.51428468087787</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>64</v>
       </c>
@@ -4790,7 +4942,7 @@
         <v>0.509520795475752</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>96</v>
       </c>
@@ -4876,7 +5028,7 @@
         <v>0.508637335933338</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>116</v>
       </c>
@@ -4962,7 +5114,7 @@
         <v>0.50107779608167</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>9</v>
       </c>
@@ -5048,7 +5200,7 @@
         <v>0.506233929039451</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>10</v>
       </c>
@@ -5134,7 +5286,7 @@
         <v>0.506233929039451</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>11</v>
       </c>
@@ -5220,7 +5372,7 @@
         <v>0.506233929039451</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>12</v>
       </c>
@@ -5306,7 +5458,7 @@
         <v>0.506233929039451</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>44</v>
       </c>
@@ -5392,7 +5544,7 @@
         <v>0.501621619454755</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>92</v>
       </c>
@@ -5478,7 +5630,7 @@
         <v>0.509145908901541</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>123</v>
       </c>
@@ -5564,7 +5716,7 @@
         <v>0.499026187094495</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>103</v>
       </c>
@@ -5650,7 +5802,7 @@
         <v>0.501222528971934</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>100</v>
       </c>
@@ -5736,7 +5888,7 @@
         <v>0.501259285796052</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>87</v>
       </c>
@@ -5822,7 +5974,7 @@
         <v>0.511455555714316</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>63</v>
       </c>
@@ -5908,7 +6060,7 @@
         <v>0.495846186192311</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>83</v>
       </c>
@@ -5994,7 +6146,7 @@
         <v>0.496384657592539</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>46</v>
       </c>
@@ -6080,7 +6232,7 @@
         <v>0.519280580169148</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>111</v>
       </c>
@@ -6166,7 +6318,7 @@
         <v>0.500335309302128</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>70</v>
       </c>
@@ -6252,7 +6404,7 @@
         <v>0.502806069915239</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>43</v>
       </c>
@@ -6338,7 +6490,7 @@
         <v>0.4918548755129</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>107</v>
       </c>
@@ -6424,7 +6576,7 @@
         <v>0.498158390101768</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>127</v>
       </c>
@@ -6510,7 +6662,7 @@
         <v>0.496127647232995</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>26</v>
       </c>
@@ -6596,7 +6748,7 @@
         <v>0.491897976128073</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>91</v>
       </c>
@@ -6682,7 +6834,7 @@
         <v>0.498720301047539</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>50</v>
       </c>
@@ -6768,7 +6920,7 @@
         <v>0.511827360429592</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>132</v>
       </c>
@@ -6854,7 +7006,7 @@
         <v>0.495517080534914</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>120</v>
       </c>
@@ -6940,7 +7092,7 @@
         <v>0.485703377920522</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>74</v>
       </c>
@@ -7026,7 +7178,7 @@
         <v>0.490486778714103</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>78</v>
       </c>
@@ -7112,7 +7264,7 @@
         <v>0.488395008820014</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>99</v>
       </c>
@@ -7198,7 +7350,7 @@
         <v>0.476507101621339</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>54</v>
       </c>
@@ -7284,7 +7436,7 @@
         <v>0.504908338701502</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
@@ -7370,7 +7522,7 @@
         <v>0.493700404713307</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>95</v>
       </c>
@@ -7456,7 +7608,7 @@
         <v>0.481050107365434</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>31</v>
       </c>
@@ -7542,7 +7694,7 @@
         <v>0.455601876654463</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>39</v>
       </c>
@@ -7628,7 +7780,7 @@
         <v>0.450307744885114</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>115</v>
       </c>
@@ -7714,7 +7866,7 @@
         <v>0.483180837296452</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>35</v>
       </c>
@@ -7800,7 +7952,7 @@
         <v>0.449963781619331</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>58</v>
       </c>
@@ -7886,7 +8038,7 @@
         <v>0.49218390084638</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>27</v>
       </c>
@@ -7972,7 +8124,7 @@
         <v>0.441061186030373</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>106</v>
       </c>
@@ -8058,7 +8210,7 @@
         <v>0.492753372525469</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>62</v>
       </c>
@@ -8144,7 +8296,7 @@
         <v>0.483828806177446</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>131</v>
       </c>
@@ -8230,7 +8382,7 @@
         <v>0.484385008423687</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>5</v>
       </c>
@@ -8316,7 +8468,7 @@
         <v>0.482588961611928</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>6</v>
       </c>
@@ -8402,7 +8554,7 @@
         <v>0.482588961611928</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>7</v>
       </c>
@@ -8488,7 +8640,7 @@
         <v>0.482588961611928</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>8</v>
       </c>
@@ -8574,7 +8726,7 @@
         <v>0.482588961611928</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>122</v>
       </c>
@@ -8660,7 +8812,7 @@
         <v>0.478996169330921</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>40</v>
       </c>
@@ -8746,7 +8898,7 @@
         <v>0.436938055245667</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
@@ -8832,7 +8984,7 @@
         <v>0.478320234826032</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>32</v>
       </c>
@@ -8918,7 +9070,7 @@
         <v>0.428006184649843</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>36</v>
       </c>
@@ -9004,7 +9156,7 @@
         <v>0.433543395400162</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
@@ -9090,7 +9242,7 @@
         <v>0.482338325619465</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>102</v>
       </c>
@@ -9176,7 +9328,7 @@
         <v>0.483071844085179</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>136</v>
       </c>
@@ -9262,7 +9414,7 @@
         <v>0.467053146686925</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>23</v>
       </c>
@@ -9348,7 +9500,7 @@
         <v>0.394602397368255</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>126</v>
       </c>
@@ -9434,7 +9586,7 @@
         <v>0.480668384771375</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>22</v>
       </c>
@@ -9520,7 +9672,7 @@
         <v>0.456403702004973</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>110</v>
       </c>
@@ -9606,7 +9758,7 @@
         <v>0.484166383195084</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>42</v>
       </c>
@@ -9692,7 +9844,7 @@
         <v>0.472657548353361</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>119</v>
       </c>
@@ -9778,7 +9930,7 @@
         <v>0.464808405311083</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>28</v>
       </c>
@@ -9864,7 +10016,7 @@
         <v>0.412835275690437</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>90</v>
       </c>
@@ -9950,7 +10102,7 @@
         <v>0.465671362411366</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>98</v>
       </c>
@@ -10036,7 +10188,7 @@
         <v>0.449741383996296</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>24</v>
       </c>
@@ -10122,7 +10274,7 @@
         <v>0.370908989383878</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>37</v>
       </c>
@@ -10208,7 +10360,7 @@
         <v>0.479884492330759</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>94</v>
       </c>
@@ -10294,7 +10446,7 @@
         <v>0.448819393794531</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>140</v>
       </c>
@@ -10380,7 +10532,7 @@
         <v>0.470272180201148</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>33</v>
       </c>
@@ -10466,7 +10618,7 @@
         <v>0.462069532670146</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>114</v>
       </c>
@@ -10552,7 +10704,7 @@
         <v>0.454033839659845</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>29</v>
       </c>
@@ -10638,7 +10790,7 @@
         <v>0.456419438115898</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>135</v>
       </c>
@@ -10724,7 +10876,7 @@
         <v>0.457256735822452</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>57</v>
       </c>
@@ -10810,7 +10962,7 @@
         <v>0.460157886297801</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>73</v>
       </c>
@@ -10896,7 +11048,7 @@
         <v>0.433874614121609</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>25</v>
       </c>
@@ -10982,7 +11134,7 @@
         <v>0.45691992173583</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>77</v>
       </c>
@@ -11068,7 +11220,7 @@
         <v>0.413257035905676</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>53</v>
       </c>
@@ -11154,7 +11306,7 @@
         <v>0.443621590158029</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>139</v>
       </c>
@@ -11240,7 +11392,7 @@
         <v>0.469379807322124</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>130</v>
       </c>
@@ -11326,7 +11478,7 @@
         <v>0.44660455949182</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>45</v>
       </c>
@@ -11412,7 +11564,7 @@
         <v>0.446151902143105</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>65</v>
       </c>
@@ -11498,7 +11650,7 @@
         <v>0.434605110215082</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>49</v>
       </c>
@@ -11584,7 +11736,7 @@
         <v>0.436043928943276</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>69</v>
       </c>
@@ -11670,7 +11822,7 @@
         <v>0.425120102500947</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>118</v>
       </c>
@@ -11756,7 +11908,7 @@
         <v>0.44023803617891</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>85</v>
       </c>
@@ -11842,7 +11994,7 @@
         <v>0.435875541911729</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -11928,7 +12080,7 @@
         <v>0.433901676749498</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>2</v>
       </c>
@@ -12014,7 +12166,7 @@
         <v>0.433901676749498</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>3</v>
       </c>
@@ -12100,7 +12252,7 @@
         <v>0.433901676749498</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>4</v>
       </c>
@@ -12186,7 +12338,7 @@
         <v>0.433901676749498</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>61</v>
       </c>
@@ -12272,7 +12424,7 @@
         <v>0.433370799945638</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>121</v>
       </c>
@@ -12358,7 +12510,7 @@
         <v>0.426643343735778</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>41</v>
       </c>
@@ -12444,7 +12596,7 @@
         <v>0.428719752668155</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>81</v>
       </c>
@@ -12530,7 +12682,7 @@
         <v>0.426510482850022</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>101</v>
       </c>
@@ -12616,7 +12768,7 @@
         <v>0.423978817663125</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>21</v>
       </c>
@@ -12702,7 +12854,7 @@
         <v>0.418693974341288</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>89</v>
       </c>
@@ -12788,7 +12940,7 @@
         <v>0.413734873518425</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>105</v>
       </c>
@@ -12874,7 +13026,7 @@
         <v>0.406640908885168</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>93</v>
       </c>
@@ -12960,7 +13112,7 @@
         <v>0.389248905482543</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>134</v>
       </c>
@@ -13046,7 +13198,7 @@
         <v>0.419822115538115</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>125</v>
       </c>
@@ -13132,7 +13284,7 @@
         <v>0.403921501393622</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>97</v>
       </c>
@@ -13218,7 +13370,7 @@
         <v>0.371005152606154</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>138</v>
       </c>
@@ -13304,7 +13456,7 @@
         <v>0.412168759688676</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>109</v>
       </c>
@@ -13390,7 +13542,7 @@
         <v>0.378631172373724</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>129</v>
       </c>
@@ -13476,7 +13628,7 @@
         <v>0.377881257930486</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>113</v>
       </c>
@@ -13562,7 +13714,7 @@
         <v>0.3632642270482</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>117</v>
       </c>
@@ -13648,7 +13800,7 @@
         <v>0.364411637561712</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>133</v>
       </c>
@@ -13734,7 +13886,7 @@
         <v>0.35601670933958</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>137</v>
       </c>
@@ -13851,15 +14003,15 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>15</v>
       </c>
@@ -13876,7 +14028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -13901,7 +14053,7 @@
         <v>-1.60667397696</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -13926,7 +14078,7 @@
         <v>0.35973211057</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -13951,7 +14103,7 @@
         <v>-1.45683132389</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -13976,7 +14128,7 @@
         <v>0.803203532</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -14001,7 +14153,7 @@
         <v>-2.09921314418</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -14026,7 +14178,7 @@
         <v>0.241229759209999</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -14051,7 +14203,7 @@
         <v>-1.24448981408</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -14076,7 +14228,7 @@
         <v>0.78513298284</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -14101,7 +14253,7 @@
         <v>1.03087564076</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -14126,7 +14278,7 @@
         <v>1.31856689941</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -14151,7 +14303,7 @@
         <v>-0.79923962101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -14176,7 +14328,7 @@
         <v>1.01569651052</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -14201,7 +14353,7 @@
         <v>-0.32761584885</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
@@ -14226,7 +14378,7 @@
         <v>0.30236222287</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
@@ -14251,7 +14403,7 @@
         <v>1.96290379143</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -14276,7 +14428,7 @@
         <v>-2.48663941312</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -14301,7 +14453,7 @@
         <v>0.733578025</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
@@ -14326,7 +14478,7 @@
         <v>1.34359217512</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -14351,7 +14503,7 @@
         <v>1.17879494089</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -14376,7 +14528,7 @@
         <v>-0.78299971457</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
@@ -14401,7 +14553,7 @@
         <v>1.2166145453</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
         <v>41</v>
       </c>
@@ -14426,7 +14578,7 @@
         <v>1.29946023988</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
         <v>42</v>
       </c>
@@ -14451,7 +14603,7 @@
         <v>1.83042966865</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
@@ -14476,7 +14628,7 @@
         <v>1.43828030836</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
         <v>44</v>
       </c>
@@ -14501,7 +14653,7 @@
         <v>0.21362956886</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
@@ -14526,7 +14678,7 @@
         <v>0.465362212330001</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
         <v>46</v>
       </c>
@@ -14551,7 +14703,7 @@
         <v>0.373079966900001</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
         <v>47</v>
       </c>
@@ -14576,7 +14728,7 @@
         <v>0.10365862142</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>48</v>
       </c>
@@ -14601,7 +14753,7 @@
         <v>1.10812936381</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
@@ -14626,7 +14778,7 @@
         <v>1.89012658065</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
         <v>50</v>
       </c>
@@ -14651,7 +14803,7 @@
         <v>-0.78453182553</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>51</v>
       </c>
@@ -14676,7 +14828,7 @@
         <v>-0.8053413733</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
         <v>52</v>
       </c>
@@ -14701,7 +14853,7 @@
         <v>-0.507479400469999</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>53</v>
       </c>
@@ -14726,7 +14878,7 @@
         <v>0.640779129599999</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -14751,7 +14903,7 @@
         <v>0.84862535185</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
@@ -14776,7 +14928,7 @@
         <v>-0.45560297452</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
         <v>56</v>
       </c>
@@ -14801,7 +14953,7 @@
         <v>2.10664835892</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
         <v>57</v>
       </c>
@@ -14826,7 +14978,7 @@
         <v>1.46256331412</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>58</v>
       </c>
@@ -14851,7 +15003,7 @@
         <v>-0.458728834</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
         <v>59</v>
       </c>
@@ -14876,7 +15028,7 @@
         <v>1.27138488781</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>60</v>
       </c>
@@ -14901,7 +15053,7 @@
         <v>-0.562086011</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
         <v>61</v>
       </c>
@@ -14926,7 +15078,7 @@
         <v>-1.30880988941</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -14951,7 +15103,7 @@
         <v>-1.38455395143</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
         <v>63</v>
       </c>
@@ -14976,7 +15128,7 @@
         <v>1.39726078747</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>64</v>
       </c>
@@ -15001,7 +15153,7 @@
         <v>-0.79599841255</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
         <v>65</v>
       </c>
@@ -15026,7 +15178,7 @@
         <v>1.42507259475</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
         <v>66</v>
       </c>
@@ -15051,7 +15203,7 @@
         <v>0.13020986423</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
         <v>67</v>
       </c>
@@ -15076,7 +15228,7 @@
         <v>-1.81545478943</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
         <v>68</v>
       </c>
@@ -15101,7 +15253,7 @@
         <v>-0.789649165</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
         <v>69</v>
       </c>
@@ -15126,7 +15278,7 @@
         <v>0.547870458909999</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
         <v>70</v>
       </c>
@@ -15151,7 +15303,7 @@
         <v>-1.11537319549</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
         <v>71</v>
       </c>
@@ -15176,7 +15328,7 @@
         <v>-2.09555708485</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
         <v>72</v>
       </c>
@@ -15201,7 +15353,7 @@
         <v>-1.39732626206</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
         <v>73</v>
       </c>
@@ -15226,7 +15378,7 @@
         <v>1.56263271927</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
         <v>74</v>
       </c>
@@ -15251,7 +15403,7 @@
         <v>0.0212786853300004</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
         <v>75</v>
       </c>
@@ -15276,7 +15428,7 @@
         <v>0.5288006846</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
         <v>76</v>
       </c>
@@ -15301,7 +15453,7 @@
         <v>-0.38706263694</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
@@ -15326,7 +15478,7 @@
         <v>0.65446777815</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
@@ -15351,7 +15503,7 @@
         <v>-1.11519093032</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
@@ -15376,7 +15528,7 @@
         <v>0.78662064027</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
         <v>80</v>
       </c>
@@ -15401,7 +15553,7 @@
         <v>-1.8501288899</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
         <v>81</v>
       </c>
@@ -15426,7 +15578,7 @@
         <v>-0.69343354182</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
         <v>82</v>
       </c>
@@ -15451,7 +15603,7 @@
         <v>0.48156936244</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>83</v>
       </c>
@@ -15476,7 +15628,7 @@
         <v>0.836429380399999</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
         <v>84</v>
       </c>
@@ -15501,7 +15653,7 @@
         <v>1.51215179337</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
         <v>85</v>
       </c>
@@ -15526,7 +15678,7 @@
         <v>-1.58966773836</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
         <v>86</v>
       </c>
@@ -15551,7 +15703,7 @@
         <v>1.14187600006588E-005</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
         <v>87</v>
       </c>
@@ -15576,7 +15728,7 @@
         <v>-1.29671996921</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
         <v>88</v>
       </c>
@@ -15601,7 +15753,7 @@
         <v>1.38656798128</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
         <v>89</v>
       </c>
@@ -15626,7 +15778,7 @@
         <v>-1.95711682281</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
         <v>90</v>
       </c>
@@ -15651,7 +15803,7 @@
         <v>-0.610062462699999</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
         <v>91</v>
       </c>
@@ -15676,7 +15828,7 @@
         <v>-0.84313121766</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>92</v>
       </c>
@@ -15701,7 +15853,7 @@
         <v>0.50036926955</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
         <v>93</v>
       </c>
@@ -15726,7 +15878,7 @@
         <v>-1.19335300774</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
         <v>94</v>
       </c>
@@ -15751,7 +15903,7 @@
         <v>0.69450830291</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
         <v>95</v>
       </c>
@@ -15776,7 +15928,7 @@
         <v>0.777316201820001</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
         <v>96</v>
       </c>
@@ -15801,7 +15953,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
         <v>97</v>
       </c>
@@ -15826,7 +15978,7 @@
         <v>0.08843962121</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>98</v>
       </c>
@@ -15851,7 +16003,7 @@
         <v>0.87645968089</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
         <v>99</v>
       </c>
@@ -15876,7 +16028,7 @@
         <v>-1.28969214936</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
         <v>100</v>
       </c>
@@ -15901,7 +16053,7 @@
         <v>-0.15945131599</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
         <v>101</v>
       </c>
@@ -15926,7 +16078,7 @@
         <v>-0.83798877234</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
         <v>102</v>
       </c>
@@ -15951,7 +16103,7 @@
         <v>-0.297766664809999</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
         <v>103</v>
       </c>
@@ -15976,7 +16128,7 @@
         <v>-0.9740469074</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
         <v>104</v>
       </c>
@@ -16001,7 +16153,7 @@
         <v>0.20644005631</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>105</v>
       </c>
@@ -16026,7 +16178,7 @@
         <v>-0.51133692204</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
         <v>106</v>
       </c>
@@ -16051,7 +16203,7 @@
         <v>-0.75141807259</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
         <v>107</v>
       </c>
@@ -16076,7 +16228,7 @@
         <v>0.68784978478</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
         <v>108</v>
       </c>
@@ -16101,7 +16253,7 @@
         <v>-0.69188542275</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
         <v>109</v>
       </c>
@@ -16126,7 +16278,7 @@
         <v>1.37509018987</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12" t="s">
         <v>110</v>
       </c>
@@ -16151,7 +16303,7 @@
         <v>0.3445380554</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
         <v>111</v>
       </c>
@@ -16176,7 +16328,7 @@
         <v>2.27388486081</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12" t="s">
         <v>112</v>
       </c>
@@ -16201,7 +16353,7 @@
         <v>1.14450834511</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
         <v>113</v>
       </c>
@@ -16226,7 +16378,7 @@
         <v>1.06897016449</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
         <v>114</v>
       </c>
@@ -16251,7 +16403,7 @@
         <v>0.32432041168</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
         <v>115</v>
       </c>
@@ -16276,7 +16428,7 @@
         <v>0.0406096698800003</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
         <v>116</v>
       </c>
@@ -16301,7 +16453,7 @@
         <v>-0.10849107906</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
         <v>117</v>
       </c>
@@ -16326,7 +16478,7 @@
         <v>-1.61959529136</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="12" t="s">
         <v>118</v>
       </c>
@@ -16351,7 +16503,7 @@
         <v>-2.01102209087</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="12" t="s">
         <v>119</v>
       </c>
@@ -16376,7 +16528,7 @@
         <v>4.04345238024</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="12" t="s">
         <v>120</v>
       </c>
@@ -16401,7 +16553,7 @@
         <v>1.42387130335</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="12" t="s">
         <v>121</v>
       </c>
@@ -16426,7 +16578,7 @@
         <v>-0.55170935796</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12" t="s">
         <v>122</v>
       </c>
@@ -16451,7 +16603,7 @@
         <v>1.00483796372</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
         <v>123</v>
       </c>
@@ -16476,7 +16628,7 @@
         <v>-0.27170097022</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
         <v>124</v>
       </c>
@@ -16501,7 +16653,7 @@
         <v>-1.48493542718</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
         <v>125</v>
       </c>
@@ -16526,7 +16678,7 @@
         <v>-1.06628281967</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="12" t="s">
         <v>126</v>
       </c>
@@ -16551,7 +16703,7 @@
         <v>-0.47473794143</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="12" t="s">
         <v>127</v>
       </c>
@@ -16576,7 +16728,7 @@
         <v>0.6005948098</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="12" t="s">
         <v>128</v>
       </c>
@@ -16601,7 +16753,7 @@
         <v>-0.88810948172</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="12" t="s">
         <v>129</v>
       </c>
@@ -16626,7 +16778,7 @@
         <v>-1.44790389613</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="12" t="s">
         <v>130</v>
       </c>
@@ -16651,7 +16803,7 @@
         <v>0.68608605745</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="12" t="s">
         <v>131</v>
       </c>
@@ -16676,7 +16828,7 @@
         <v>2.05297651982</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="12" t="s">
         <v>132</v>
       </c>
@@ -16701,7 +16853,7 @@
         <v>0.80180733425</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
         <v>133</v>
       </c>
@@ -16726,7 +16878,7 @@
         <v>-1.68996527199</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
         <v>134</v>
       </c>
@@ -16751,7 +16903,7 @@
         <v>-1.6112454544</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="12" t="s">
         <v>135</v>
       </c>
@@ -16776,7 +16928,7 @@
         <v>0.95499629668</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="12" t="s">
         <v>136</v>
       </c>
@@ -16801,7 +16953,7 @@
         <v>0.0717340681100005</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="12" t="s">
         <v>137</v>
       </c>
@@ -16826,7 +16978,7 @@
         <v>0.19042007767</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12" t="s">
         <v>138</v>
       </c>
@@ -16851,7 +17003,7 @@
         <v>0.583273716090001</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="12" t="s">
         <v>139</v>
       </c>
@@ -16876,7 +17028,7 @@
         <v>0.36101703763</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="12" t="s">
         <v>140</v>
       </c>
@@ -16901,7 +17053,7 @@
         <v>0.78009374711</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="12" t="s">
         <v>141</v>
       </c>
@@ -16926,7 +17078,7 @@
         <v>-0.22253165361</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
         <v>142</v>
       </c>
@@ -16951,7 +17103,7 @@
         <v>1.07956692618</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="12" t="s">
         <v>143</v>
       </c>
@@ -16976,7 +17128,7 @@
         <v>0.4752119736</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="12" t="s">
         <v>144</v>
       </c>
@@ -17001,7 +17153,7 @@
         <v>-1.71167446099</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="12" t="s">
         <v>145</v>
       </c>
@@ -17026,7 +17178,7 @@
         <v>-0.69746299745</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="12" t="s">
         <v>146</v>
       </c>
@@ -17051,7 +17203,7 @@
         <v>2.60762363185</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12" t="s">
         <v>147</v>
       </c>
@@ -17076,7 +17228,7 @@
         <v>-2.15546938065</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="12" t="s">
         <v>148</v>
       </c>
@@ -17101,7 +17253,7 @@
         <v>0.0830756468200002</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="12" t="s">
         <v>149</v>
       </c>
@@ -17126,7 +17278,7 @@
         <v>0.520150873990001</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="s">
         <v>150</v>
       </c>
@@ -17151,7 +17303,7 @@
         <v>-0.85825664237</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
         <v>151</v>
       </c>
@@ -17176,7 +17328,7 @@
         <v>-0.609824718980001</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="12" t="s">
         <v>152</v>
       </c>
@@ -17201,7 +17353,7 @@
         <v>2.57273796858</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12" t="s">
         <v>153</v>
       </c>
@@ -17226,7 +17378,7 @@
         <v>-0.52976784519</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="12" t="s">
         <v>154</v>
       </c>
@@ -17251,7 +17403,7 @@
         <v>-1.01160712477</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12" t="s">
         <v>155</v>
       </c>
@@ -17276,7 +17428,7 @@
         <v>0.592457861130001</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="12" t="s">
         <v>156</v>
       </c>
@@ -17301,7 +17453,7 @@
         <v>-0.8302704242</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="12" t="s">
         <v>157</v>
       </c>
@@ -17326,7 +17478,7 @@
         <v>-0.325</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="12" t="s">
         <v>158</v>
       </c>
@@ -17351,7 +17503,7 @@
         <v>-0.67411279996</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="12" t="s">
         <v>159</v>
       </c>
@@ -17376,7 +17528,7 @@
         <v>-0.65616323671</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
         <v>160</v>
       </c>
@@ -17401,7 +17553,7 @@
         <v>-1.15532757988</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="12" t="s">
         <v>161</v>
       </c>
@@ -17426,7 +17578,7 @@
         <v>-0.0770956377799994</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="12" t="s">
         <v>162</v>
       </c>
@@ -17451,7 +17603,7 @@
         <v>-0.92978589272</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12" t="s">
         <v>163</v>
       </c>
@@ -17476,7 +17628,7 @@
         <v>1.1132062311</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="12" t="s">
         <v>164</v>
       </c>
@@ -17501,7 +17653,7 @@
         <v>-0.87779990426</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="12" t="s">
         <v>165</v>
       </c>
@@ -17526,7 +17678,7 @@
         <v>1.40285297532</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="12" t="s">
         <v>166</v>
       </c>
@@ -17551,7 +17703,7 @@
         <v>0.24659578107</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="12" t="s">
         <v>167</v>
       </c>
@@ -17576,7 +17728,7 @@
         <v>0.146000594299999</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="12" t="s">
         <v>168</v>
       </c>
@@ -17601,7 +17753,7 @@
         <v>-0.00739981223000008</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
         <v>169</v>
       </c>
@@ -17626,7 +17778,7 @@
         <v>1.48370737766</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="12" t="s">
         <v>170</v>
       </c>
@@ -17651,7 +17803,7 @@
         <v>-0.73940847974</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="12" t="s">
         <v>171</v>
       </c>
@@ -17676,7 +17828,7 @@
         <v>0.7951281356</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="12" t="s">
         <v>172</v>
       </c>
@@ -17701,7 +17853,7 @@
         <v>1.36124313386</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="12" t="s">
         <v>173</v>
       </c>
@@ -17726,7 +17878,7 @@
         <v>-0.15812475921</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="12" t="s">
         <v>174</v>
       </c>
@@ -17751,7 +17903,7 @@
         <v>-0.0693472548299994</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="12" t="s">
         <v>175</v>
       </c>
@@ -17776,7 +17928,7 @@
         <v>-1.87908166347</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="12" t="s">
         <v>176</v>
       </c>
@@ -17801,7 +17953,7 @@
         <v>-0.26170333883</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="12" t="s">
         <v>177</v>
       </c>
@@ -17826,7 +17978,7 @@
         <v>0.6301498946</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
         <v>178</v>
       </c>
@@ -17851,7 +18003,7 @@
         <v>0.82225403179</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="12" t="s">
         <v>179</v>
       </c>
@@ -17876,7 +18028,7 @@
         <v>-0.409043203770001</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="12" t="s">
         <v>180</v>
       </c>
@@ -17901,7 +18053,7 @@
         <v>0.00211027928000007</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="12" t="s">
         <v>181</v>
       </c>
@@ -17926,7 +18078,7 @@
         <v>2.29434756386</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="12" t="s">
         <v>182</v>
       </c>
@@ -17951,7 +18103,7 @@
         <v>-1.43364879083</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="12" t="s">
         <v>183</v>
       </c>
@@ -17976,7 +18128,7 @@
         <v>-0.53217731767</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="12" t="s">
         <v>184</v>
       </c>
@@ -18001,7 +18153,7 @@
         <v>2.34598326112</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="12" t="s">
         <v>185</v>
       </c>
@@ -18026,7 +18178,7 @@
         <v>0.43753809711</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="12" t="s">
         <v>186</v>
       </c>
@@ -18051,7 +18203,7 @@
         <v>0.802775831450001</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
         <v>187</v>
       </c>
@@ -18076,7 +18228,7 @@
         <v>1.72813301682</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="12" t="s">
         <v>188</v>
       </c>
@@ -18101,7 +18253,7 @@
         <v>-0.0833756694399996</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="12" t="s">
         <v>189</v>
       </c>
@@ -18126,7 +18278,7 @@
         <v>-1.44971874571</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="12" t="s">
         <v>190</v>
       </c>
@@ -18151,7 +18303,7 @@
         <v>0.39481215109</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="12" t="s">
         <v>191</v>
       </c>
@@ -18176,7 +18328,7 @@
         <v>-0.0435381923299998</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="12" t="s">
         <v>192</v>
       </c>
@@ -18201,7 +18353,7 @@
         <v>2.15150835703</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="12" t="s">
         <v>193</v>
       </c>
@@ -18226,7 +18378,7 @@
         <v>0.900422748820001</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="12" t="s">
         <v>194</v>
       </c>
@@ -18251,7 +18403,7 @@
         <v>0.10043597584</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="12" t="s">
         <v>195</v>
       </c>
@@ -18276,7 +18428,7 @@
         <v>1.93718795237</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
         <v>196</v>
       </c>
@@ -18301,7 +18453,7 @@
         <v>-0.52561440218</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="12" t="s">
         <v>197</v>
       </c>
@@ -18326,7 +18478,7 @@
         <v>0.818525065909999</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="12" t="s">
         <v>198</v>
       </c>
@@ -18351,7 +18503,7 @@
         <v>-0.40218577973</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="12" t="s">
         <v>199</v>
       </c>
@@ -18376,7 +18528,7 @@
         <v>-0.30729370785</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="12" t="s">
         <v>200</v>
       </c>
@@ -18401,7 +18553,7 @@
         <v>-0.71735691397</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="12" t="s">
         <v>201</v>
       </c>
@@ -18426,7 +18578,7 @@
         <v>-0.525</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="12" t="s">
         <v>202</v>
       </c>
@@ -18451,7 +18603,7 @@
         <v>-1.94244670555</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="12" t="s">
         <v>203</v>
       </c>
@@ -18476,7 +18628,7 @@
         <v>0.961460517859999</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="12" t="s">
         <v>204</v>
       </c>
@@ -18501,7 +18653,7 @@
         <v>-0.48657522963</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
         <v>205</v>
       </c>
@@ -18526,7 +18678,7 @@
         <v>0.783611143010001</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="12" t="s">
         <v>206</v>
       </c>
@@ -18551,7 +18703,7 @@
         <v>1.6112432656</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="12" t="s">
         <v>207</v>
       </c>
@@ -18576,7 +18728,7 @@
         <v>0.26016855659</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="12" t="s">
         <v>208</v>
       </c>
@@ -18601,7 +18753,7 @@
         <v>-0.32310948413</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="12" t="s">
         <v>209</v>
       </c>
@@ -18626,7 +18778,7 @@
         <v>-2.05146727907</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="12" t="s">
         <v>210</v>
       </c>
@@ -18651,7 +18803,7 @@
         <v>-1.72903293278</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12" t="s">
         <v>211</v>
       </c>
@@ -18676,7 +18828,7 @@
         <v>0.0497365639999998</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="12" t="s">
         <v>212</v>
       </c>
@@ -18701,7 +18853,7 @@
         <v>-0.77669031128</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="12" t="s">
         <v>213</v>
       </c>
@@ -18726,7 +18878,7 @@
         <v>0.00953881232999976</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
         <v>214</v>
       </c>
@@ -18751,7 +18903,7 @@
         <v>0.12914301479</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="12" t="s">
         <v>215</v>
       </c>
@@ -18776,7 +18928,7 @@
         <v>-0.259186306879999</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="12" t="s">
         <v>216</v>
       </c>
@@ -18801,7 +18953,7 @@
         <v>1.13712515935</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="12" t="s">
         <v>217</v>
       </c>
@@ -18826,7 +18978,7 @@
         <v>-2.3650413374</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="12" t="s">
         <v>218</v>
       </c>
@@ -18851,7 +19003,7 @@
         <v>0.74463446815</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12" t="s">
         <v>219</v>
       </c>
@@ -18876,7 +19028,7 @@
         <v>1.1355854381</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="12" t="s">
         <v>220</v>
       </c>
@@ -18901,7 +19053,7 @@
         <v>-1.5418713976</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
         <v>221</v>
       </c>
@@ -18926,7 +19078,7 @@
         <v>-0.32402841542</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
         <v>222</v>
       </c>
@@ -18951,7 +19103,7 @@
         <v>-1.8556790892</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
         <v>223</v>
       </c>
@@ -18976,7 +19128,7 @@
         <v>0.0418490973099992</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
         <v>224</v>
       </c>
@@ -19001,7 +19153,7 @@
         <v>0.559706374999999</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
         <v>225</v>
       </c>
@@ -19026,7 +19178,7 @@
         <v>0.555889821819999</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
         <v>226</v>
       </c>
@@ -19051,7 +19203,7 @@
         <v>1.22228625988</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
         <v>227</v>
       </c>
@@ -19076,7 +19228,7 @@
         <v>2.04234068438</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
         <v>228</v>
       </c>
@@ -19101,7 +19253,7 @@
         <v>1.12574482745</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
         <v>229</v>
       </c>
@@ -19126,7 +19278,7 @@
         <v>-0.95035879365</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
         <v>230</v>
       </c>
@@ -19151,7 +19303,7 @@
         <v>-1.31112219062</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
         <v>231</v>
       </c>
@@ -19176,7 +19328,7 @@
         <v>0.40846590473</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
         <v>232</v>
       </c>
@@ -19201,7 +19353,7 @@
         <v>-2.525</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
         <v>233</v>
       </c>
@@ -19226,7 +19378,7 @@
         <v>0.590965885549999</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
         <v>234</v>
       </c>
@@ -19251,7 +19403,7 @@
         <v>0.18128835443</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
         <v>235</v>
       </c>
@@ -19276,7 +19428,7 @@
         <v>-0.77193035632</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
         <v>236</v>
       </c>
@@ -19301,7 +19453,7 @@
         <v>2.11594014561</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
         <v>237</v>
       </c>
@@ -19326,7 +19478,7 @@
         <v>0.0496781436500005</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
         <v>238</v>
       </c>
@@ -19351,7 +19503,7 @@
         <v>0.970394951089999</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
         <v>239</v>
       </c>
@@ -19376,7 +19528,7 @@
         <v>1.94291476722</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
         <v>240</v>
       </c>
@@ -19401,7 +19553,7 @@
         <v>1.87536071449</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
         <v>241</v>
       </c>
@@ -19426,7 +19578,7 @@
         <v>-0.99670205655</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
         <v>242</v>
       </c>
@@ -19451,7 +19603,7 @@
         <v>0.258813068049999</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
         <v>243</v>
       </c>
@@ -19476,7 +19628,7 @@
         <v>0.76257138758</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
         <v>244</v>
       </c>
@@ -19501,7 +19653,7 @@
         <v>-0.0756239674600003</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
         <v>245</v>
       </c>
@@ -19526,7 +19678,7 @@
         <v>-0.42669839987</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
         <v>246</v>
       </c>
@@ -19551,7 +19703,7 @@
         <v>-1.00980722911</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
         <v>247</v>
       </c>
@@ -19576,7 +19728,7 @@
         <v>0.280249868599999</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
         <v>248</v>
       </c>
@@ -19601,7 +19753,7 @@
         <v>0.08439765441</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
         <v>249</v>
       </c>
@@ -19626,7 +19778,7 @@
         <v>-0.60906815679</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
         <v>250</v>
       </c>
@@ -19651,7 +19803,7 @@
         <v>-1.03081380346</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
         <v>251</v>
       </c>
@@ -19676,7 +19828,7 @@
         <v>0.13022583992</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
         <v>252</v>
       </c>
@@ -19701,7 +19853,7 @@
         <v>0.47085486545</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
         <v>253</v>
       </c>
@@ -19726,7 +19878,7 @@
         <v>0.602707847880001</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
         <v>254</v>
       </c>
@@ -19751,7 +19903,7 @@
         <v>-0.920813681779999</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
         <v>255</v>
       </c>
@@ -19776,7 +19928,7 @@
         <v>1.38534606286</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
         <v>256</v>
       </c>
@@ -19801,7 +19953,7 @@
         <v>-0.0749132585000005</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
         <v>257</v>
       </c>
@@ -19826,7 +19978,7 @@
         <v>1.24792094805</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
         <v>258</v>
       </c>
@@ -19851,7 +20003,7 @@
         <v>-1.30489049776</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
         <v>259</v>
       </c>
@@ -19876,7 +20028,7 @@
         <v>-0.58307645542</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
         <v>260</v>
       </c>
@@ -19901,7 +20053,7 @@
         <v>-1.13944020472</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
         <v>261</v>
       </c>
@@ -19926,7 +20078,7 @@
         <v>-1.45912334029</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
         <v>262</v>
       </c>
@@ -19951,7 +20103,7 @@
         <v>0.34598869561</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
         <v>263</v>
       </c>
@@ -19976,7 +20128,7 @@
         <v>1.74285936255</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
         <v>264</v>
       </c>
@@ -20001,7 +20153,7 @@
         <v>1.45716006916</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
         <v>265</v>
       </c>
@@ -20026,7 +20178,7 @@
         <v>0.09040706587</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
         <v>266</v>
       </c>
@@ -20051,7 +20203,7 @@
         <v>-0.6339032359</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
         <v>267</v>
       </c>
@@ -20076,7 +20228,7 @@
         <v>0.528386949110001</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
         <v>268</v>
       </c>
@@ -20101,7 +20253,7 @@
         <v>-0.97212279421</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
         <v>269</v>
       </c>
@@ -20126,7 +20278,7 @@
         <v>1.45280471808</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
         <v>270</v>
       </c>
@@ -20151,7 +20303,7 @@
         <v>-0.00601282219999977</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
         <v>271</v>
       </c>
@@ -20176,7 +20328,7 @@
         <v>-0.47866266729</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
         <v>272</v>
       </c>
@@ -20201,7 +20353,7 @@
         <v>-0.41659420856</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
         <v>273</v>
       </c>
@@ -20226,7 +20378,7 @@
         <v>1.34978993226</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
         <v>274</v>
       </c>
@@ -20251,7 +20403,7 @@
         <v>2.0582502186</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
         <v>275</v>
       </c>
@@ -20276,7 +20428,7 @@
         <v>-0.0317342685900002</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
         <v>276</v>
       </c>
@@ -20301,7 +20453,7 @@
         <v>0.44564834817</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
         <v>277</v>
       </c>
@@ -20326,7 +20478,7 @@
         <v>-1.38747916776</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
         <v>278</v>
       </c>
@@ -20351,7 +20503,7 @@
         <v>0.14642907409</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
         <v>279</v>
       </c>
@@ -20376,7 +20528,7 @@
         <v>-0.91351182956</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
         <v>280</v>
       </c>
@@ -20401,7 +20553,7 @@
         <v>1.2057077173</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
         <v>281</v>
       </c>
@@ -20426,7 +20578,7 @@
         <v>0.274836921189999</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
         <v>282</v>
       </c>
@@ -20451,7 +20603,7 @@
         <v>0.4359225847</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
         <v>283</v>
       </c>
@@ -20476,7 +20628,7 @@
         <v>-2.1327182326</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
         <v>284</v>
       </c>
@@ -20501,7 +20653,7 @@
         <v>-0.546662624640001</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
         <v>285</v>
       </c>
@@ -20526,7 +20678,7 @@
         <v>0.525849596610001</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
         <v>286</v>
       </c>
@@ -20551,7 +20703,7 @@
         <v>0.0958217105300001</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
         <v>287</v>
       </c>
@@ -20576,7 +20728,7 @@
         <v>-0.44318357313</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
         <v>288</v>
       </c>
@@ -20601,7 +20753,7 @@
         <v>-0.22855517213</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
         <v>289</v>
       </c>
@@ -20626,7 +20778,7 @@
         <v>1.05541402735</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
         <v>290</v>
       </c>
@@ -20651,7 +20803,7 @@
         <v>-0.343688089930001</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="12" t="s">
         <v>291</v>
       </c>
@@ -20676,7 +20828,7 @@
         <v>0.793404599960001</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="12" t="s">
         <v>292</v>
       </c>
@@ -20701,7 +20853,7 @@
         <v>-0.66048776602</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
         <v>293</v>
       </c>
@@ -20726,7 +20878,7 @@
         <v>0.43572851708</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
         <v>294</v>
       </c>
@@ -20751,7 +20903,7 @@
         <v>1.49317699466</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
         <v>295</v>
       </c>
@@ -20776,7 +20928,7 @@
         <v>0.941031887229999</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
         <v>296</v>
       </c>
@@ -20801,7 +20953,7 @@
         <v>0.61467641699</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
         <v>297</v>
       </c>
@@ -20826,7 +20978,7 @@
         <v>0.497500912120001</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
         <v>298</v>
       </c>
@@ -20851,7 +21003,7 @@
         <v>-0.30160000356</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
         <v>299</v>
       </c>
@@ -20876,7 +21028,7 @@
         <v>0.675</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
         <v>300</v>
       </c>
@@ -20901,7 +21053,7 @@
         <v>0.592213769580001</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
         <v>301</v>
       </c>
@@ -20926,7 +21078,7 @@
         <v>0.74744174114</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
         <v>302</v>
       </c>
@@ -20951,7 +21103,7 @@
         <v>0.95937135641</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
         <v>303</v>
       </c>
@@ -20976,7 +21128,7 @@
         <v>0.12465265908</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
         <v>304</v>
       </c>
@@ -21001,7 +21153,7 @@
         <v>-0.45381631064</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
         <v>305</v>
       </c>
@@ -21026,7 +21178,7 @@
         <v>-1.38571016594</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
         <v>306</v>
       </c>
@@ -21051,7 +21203,7 @@
         <v>0.10666601961</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
         <v>307</v>
       </c>
@@ -21076,7 +21228,7 @@
         <v>0.649597690149999</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
         <v>308</v>
       </c>
@@ -21101,7 +21253,7 @@
         <v>-0.80371623803</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
         <v>309</v>
       </c>
@@ -21126,7 +21278,7 @@
         <v>0.70441910755</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
         <v>310</v>
       </c>
@@ -21151,7 +21303,7 @@
         <v>0.955797724330001</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
         <v>311</v>
       </c>
@@ -21176,7 +21328,7 @@
         <v>-1.25327067682</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="12" t="s">
         <v>312</v>
       </c>
@@ -21201,7 +21353,7 @@
         <v>0.65276971716</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="12" t="s">
         <v>313</v>
       </c>
@@ -21226,7 +21378,7 @@
         <v>-0.1525353352</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="12" t="s">
         <v>314</v>
       </c>
@@ -21251,7 +21403,7 @@
         <v>-1.18119604183</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="s">
         <v>315</v>
       </c>
@@ -21276,7 +21428,7 @@
         <v>-1.36652177897</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="s">
         <v>316</v>
       </c>
@@ -21301,7 +21453,7 @@
         <v>-0.55742420664</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="s">
         <v>317</v>
       </c>
@@ -21326,7 +21478,7 @@
         <v>0.89951551328</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
         <v>318</v>
       </c>
@@ -21351,7 +21503,7 @@
         <v>-0.87492014004</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="s">
         <v>319</v>
       </c>
@@ -21376,7 +21528,7 @@
         <v>1.8786829044</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="s">
         <v>320</v>
       </c>
@@ -21401,7 +21553,7 @@
         <v>0.89857652478</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="s">
         <v>321</v>
       </c>
@@ -21426,7 +21578,7 @@
         <v>-0.49171330692</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="s">
         <v>322</v>
       </c>
@@ -21451,7 +21603,7 @@
         <v>0.473929527989999</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="s">
         <v>323</v>
       </c>
@@ -21476,7 +21628,7 @@
         <v>1.56404300646</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="s">
         <v>324</v>
       </c>
@@ -21501,7 +21653,7 @@
         <v>0.3310707524</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="s">
         <v>325</v>
       </c>
@@ -21526,7 +21678,7 @@
         <v>-2.16465716509</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
         <v>326</v>
       </c>
@@ -21551,7 +21703,7 @@
         <v>0.37468314047</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="s">
         <v>327</v>
       </c>
@@ -21576,7 +21728,7 @@
         <v>-0.922969369940001</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
         <v>328</v>
       </c>
@@ -21601,7 +21753,7 @@
         <v>1.17004546989</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="s">
         <v>329</v>
       </c>
@@ -21626,7 +21778,7 @@
         <v>0.67655159069</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="s">
         <v>330</v>
       </c>
@@ -21651,7 +21803,7 @@
         <v>0.14486341404</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="s">
         <v>331</v>
       </c>
@@ -21676,7 +21828,7 @@
         <v>0.84577371251</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="s">
         <v>332</v>
       </c>
@@ -21701,7 +21853,7 @@
         <v>-1.12054102</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12" t="s">
         <v>333</v>
       </c>
@@ -21726,7 +21878,7 @@
         <v>0.0826016549200004</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="12" t="s">
         <v>334</v>
       </c>
@@ -21751,7 +21903,7 @@
         <v>0.26311887616</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12" t="s">
         <v>335</v>
       </c>
@@ -21776,7 +21928,7 @@
         <v>-0.167133844439999</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="12" t="s">
         <v>336</v>
       </c>
@@ -21801,7 +21953,7 @@
         <v>-1.18975924505</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
         <v>337</v>
       </c>
@@ -21826,7 +21978,7 @@
         <v>-3.16985823123</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="12" t="s">
         <v>338</v>
       </c>
@@ -21851,7 +22003,7 @@
         <v>-0.775122146239999</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12" t="s">
         <v>339</v>
       </c>
@@ -21876,7 +22028,7 @@
         <v>-1.78929232023</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="12" t="s">
         <v>340</v>
       </c>
@@ -21901,7 +22053,7 @@
         <v>-0.62308048481</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12" t="s">
         <v>341</v>
       </c>
@@ -21926,7 +22078,7 @@
         <v>1.50587706846</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="12" t="s">
         <v>342</v>
       </c>
@@ -21951,7 +22103,7 @@
         <v>-0.174717247839999</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12" t="s">
         <v>343</v>
       </c>
@@ -21976,7 +22128,7 @@
         <v>-1.17293406414</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
         <v>344</v>
       </c>
@@ -22001,7 +22153,7 @@
         <v>-1.50378450183</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
         <v>345</v>
       </c>
@@ -22026,7 +22178,7 @@
         <v>-2.29087512867</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
         <v>346</v>
       </c>
@@ -22051,7 +22203,7 @@
         <v>-0.2328562097</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
         <v>347</v>
       </c>
@@ -22076,7 +22228,7 @@
         <v>-1.4516461279</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
         <v>348</v>
       </c>
@@ -22101,7 +22253,7 @@
         <v>0.6791734007</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
         <v>349</v>
       </c>
@@ -22126,7 +22278,7 @@
         <v>0.671384779709999</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
         <v>350</v>
       </c>
@@ -22173,22 +22325,22 @@
       <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22227,7 +22379,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -22313,7 +22465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>16</v>
       </c>
@@ -22349,7 +22501,7 @@
       <c r="Q3" s="14"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>20</v>
       </c>
@@ -22385,7 +22537,7 @@
       <c r="Q4" s="14"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>23</v>
       </c>
@@ -22421,7 +22573,7 @@
       <c r="Q5" s="14"/>
       <c r="V5" s="14"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>24</v>
       </c>
@@ -22457,7 +22609,7 @@
       <c r="Q6" s="14"/>
       <c r="V6" s="14"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>12</v>
       </c>
@@ -22493,7 +22645,7 @@
       <c r="Q7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>28</v>
       </c>
@@ -22529,7 +22681,7 @@
       <c r="Q8" s="0"/>
       <c r="V8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>19</v>
       </c>
@@ -22565,7 +22717,7 @@
       <c r="Q9" s="0"/>
       <c r="V9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>15</v>
       </c>
@@ -22601,7 +22753,7 @@
       <c r="Q10" s="0"/>
       <c r="V10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>32</v>
       </c>
@@ -22637,7 +22789,7 @@
       <c r="Q11" s="0"/>
       <c r="V11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -22673,7 +22825,7 @@
       <c r="Q12" s="0"/>
       <c r="V12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>27</v>
       </c>
@@ -22709,7 +22861,7 @@
       <c r="Q13" s="0"/>
       <c r="V13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>8</v>
       </c>
@@ -22745,7 +22897,7 @@
       <c r="Q14" s="0"/>
       <c r="V14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>31</v>
       </c>
@@ -22781,7 +22933,7 @@
       <c r="Q15" s="0"/>
       <c r="V15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>7</v>
       </c>
@@ -22817,7 +22969,7 @@
       <c r="Q16" s="0"/>
       <c r="V16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>22</v>
       </c>
@@ -22853,7 +23005,7 @@
       <c r="Q17" s="0"/>
       <c r="V17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>30</v>
       </c>
@@ -22889,7 +23041,7 @@
       <c r="Q18" s="0"/>
       <c r="V18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -22925,7 +23077,7 @@
       <c r="Q19" s="0"/>
       <c r="V19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>14</v>
       </c>
@@ -22961,7 +23113,7 @@
       <c r="Q20" s="0"/>
       <c r="V20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>26</v>
       </c>
@@ -22997,7 +23149,7 @@
       <c r="Q21" s="0"/>
       <c r="V21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>4</v>
       </c>
@@ -23033,7 +23185,7 @@
       <c r="Q22" s="0"/>
       <c r="V22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>10</v>
       </c>
@@ -23069,7 +23221,7 @@
       <c r="Q23" s="0"/>
       <c r="V23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>3</v>
       </c>
@@ -23105,7 +23257,7 @@
       <c r="Q24" s="0"/>
       <c r="V24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>6</v>
       </c>
@@ -23141,7 +23293,7 @@
       <c r="Q25" s="0"/>
       <c r="V25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -23177,7 +23329,7 @@
       <c r="Q26" s="0"/>
       <c r="V26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2</v>
       </c>
@@ -23213,7 +23365,7 @@
       <c r="Q27" s="0"/>
       <c r="V27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>29</v>
       </c>
@@ -23249,7 +23401,7 @@
       <c r="Q28" s="0"/>
       <c r="V28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>21</v>
       </c>
@@ -23285,7 +23437,7 @@
       <c r="Q29" s="0"/>
       <c r="V29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>17</v>
       </c>
@@ -23321,7 +23473,7 @@
       <c r="Q30" s="0"/>
       <c r="V30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>13</v>
       </c>
@@ -23357,7 +23509,7 @@
       <c r="Q31" s="0"/>
       <c r="V31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>9</v>
       </c>
@@ -23393,7 +23545,7 @@
       <c r="Q32" s="0"/>
       <c r="V32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>5</v>
       </c>
@@ -23429,7 +23581,7 @@
       <c r="Q33" s="0"/>
       <c r="V33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +23617,7 @@
       <c r="Q34" s="0"/>
       <c r="V34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
@@ -23476,7 +23628,7 @@
       <c r="Q35" s="0"/>
       <c r="V35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
@@ -23487,7 +23639,7 @@
       <c r="Q36" s="0"/>
       <c r="V36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
@@ -23498,7 +23650,7 @@
       <c r="Q37" s="0"/>
       <c r="V37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
@@ -23509,7 +23661,7 @@
       <c r="Q38" s="0"/>
       <c r="V38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
@@ -23520,7 +23672,7 @@
       <c r="Q39" s="0"/>
       <c r="V39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
@@ -23531,7 +23683,7 @@
       <c r="Q40" s="0"/>
       <c r="V40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
@@ -23542,7 +23694,7 @@
       <c r="Q41" s="0"/>
       <c r="V41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
@@ -23553,7 +23705,7 @@
       <c r="Q42" s="0"/>
       <c r="V42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
@@ -23564,7 +23716,7 @@
       <c r="Q43" s="0"/>
       <c r="V43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
@@ -23575,7 +23727,7 @@
       <c r="Q44" s="0"/>
       <c r="V44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
@@ -23586,7 +23738,7 @@
       <c r="Q45" s="0"/>
       <c r="V45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
@@ -23597,7 +23749,7 @@
       <c r="Q46" s="0"/>
       <c r="V46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
@@ -23608,7 +23760,7 @@
       <c r="Q47" s="0"/>
       <c r="V47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
@@ -23619,7 +23771,7 @@
       <c r="Q48" s="0"/>
       <c r="V48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
@@ -23630,7 +23782,7 @@
       <c r="Q49" s="0"/>
       <c r="V49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
@@ -23651,7 +23803,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
@@ -23662,7 +23814,7 @@
       <c r="Q51" s="0"/>
       <c r="V51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
@@ -23673,7 +23825,7 @@
       <c r="Q52" s="0"/>
       <c r="V52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
@@ -23694,7 +23846,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
@@ -23715,7 +23867,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
@@ -23726,7 +23878,7 @@
       <c r="Q55" s="0"/>
       <c r="V55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
@@ -23737,7 +23889,7 @@
       <c r="Q56" s="0"/>
       <c r="V56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
@@ -23752,7 +23904,7 @@
       <c r="U57" s="11"/>
       <c r="V57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
@@ -23773,7 +23925,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
@@ -23784,7 +23936,7 @@
       <c r="Q59" s="0"/>
       <c r="V59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
@@ -23795,7 +23947,7 @@
       <c r="Q60" s="0"/>
       <c r="V60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
@@ -23810,7 +23962,7 @@
       <c r="U61" s="11"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
@@ -23825,7 +23977,7 @@
       <c r="U62" s="11"/>
       <c r="V62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
@@ -23836,7 +23988,7 @@
       <c r="Q63" s="0"/>
       <c r="V63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
@@ -23847,7 +23999,7 @@
       <c r="Q64" s="0"/>
       <c r="V64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
@@ -23858,7 +24010,7 @@
       <c r="Q65" s="0"/>
       <c r="V65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
@@ -23869,7 +24021,7 @@
       <c r="Q66" s="0"/>
       <c r="V66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
@@ -23880,7 +24032,7 @@
       <c r="Q67" s="0"/>
       <c r="V67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
@@ -23891,7 +24043,7 @@
       <c r="Q68" s="0"/>
       <c r="V68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
@@ -23906,7 +24058,7 @@
       <c r="Q69" s="0"/>
       <c r="V69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
@@ -23931,7 +24083,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
@@ -23942,7 +24094,7 @@
       <c r="Q71" s="0"/>
       <c r="V71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
@@ -23953,7 +24105,7 @@
       <c r="Q72" s="0"/>
       <c r="V72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
@@ -23968,7 +24120,7 @@
       <c r="Q73" s="0"/>
       <c r="V73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
@@ -23991,112 +24143,112 @@
       <c r="U74" s="11"/>
       <c r="V74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
       <c r="E75" s="0"/>
       <c r="J75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
       <c r="E76" s="0"/>
       <c r="J76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
       <c r="E77" s="0"/>
       <c r="J77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E78" s="0"/>
       <c r="J78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
       <c r="E79" s="0"/>
       <c r="J79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
       <c r="E80" s="0"/>
       <c r="J80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E81" s="0"/>
       <c r="J81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E82" s="0"/>
       <c r="J82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
       <c r="E83" s="0"/>
       <c r="J83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E84" s="0"/>
       <c r="J84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
       <c r="E85" s="0"/>
       <c r="J85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E86" s="0"/>
       <c r="J86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
       <c r="E87" s="0"/>
       <c r="J87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E88" s="0"/>
       <c r="J88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
       <c r="E89" s="0"/>
       <c r="J89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
@@ -24107,262 +24259,262 @@
       <c r="I90" s="9"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
@@ -24398,24 +24550,24 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5101214574899"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24454,7 +24606,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -24540,7 +24692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>3</v>
       </c>
@@ -24576,7 +24728,7 @@
       <c r="Q3" s="14"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>7</v>
       </c>
@@ -24612,7 +24764,7 @@
       <c r="Q4" s="14"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>12</v>
       </c>
@@ -24648,7 +24800,7 @@
       <c r="Q5" s="14"/>
       <c r="V5" s="14"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>15</v>
       </c>
@@ -24684,7 +24836,7 @@
       <c r="Q6" s="14"/>
       <c r="V6" s="14"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>11</v>
       </c>
@@ -24720,7 +24872,7 @@
       <c r="Q7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
@@ -24756,7 +24908,7 @@
       <c r="Q8" s="0"/>
       <c r="V8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>16</v>
       </c>
@@ -24792,7 +24944,7 @@
       <c r="Q9" s="0"/>
       <c r="V9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>23</v>
       </c>
@@ -24828,7 +24980,7 @@
       <c r="Q10" s="0"/>
       <c r="V10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>4</v>
       </c>
@@ -24864,7 +25016,7 @@
       <c r="Q11" s="0"/>
       <c r="V11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>19</v>
       </c>
@@ -24900,7 +25052,7 @@
       <c r="Q12" s="0"/>
       <c r="V12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>20</v>
       </c>
@@ -24936,7 +25088,7 @@
       <c r="Q13" s="0"/>
       <c r="V13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>24</v>
       </c>
@@ -24972,7 +25124,7 @@
       <c r="Q14" s="0"/>
       <c r="V14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2</v>
       </c>
@@ -25008,7 +25160,7 @@
       <c r="Q15" s="0"/>
       <c r="V15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>6</v>
       </c>
@@ -25044,7 +25196,7 @@
       <c r="Q16" s="0"/>
       <c r="V16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>10</v>
       </c>
@@ -25080,7 +25232,7 @@
       <c r="Q17" s="0"/>
       <c r="V17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
@@ -25116,7 +25268,7 @@
       <c r="Q18" s="0"/>
       <c r="V18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -25152,7 +25304,7 @@
       <c r="Q19" s="0"/>
       <c r="V19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>22</v>
       </c>
@@ -25188,7 +25340,7 @@
       <c r="Q20" s="0"/>
       <c r="V20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>9</v>
       </c>
@@ -25224,7 +25376,7 @@
       <c r="Q21" s="0"/>
       <c r="V21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
@@ -25260,7 +25412,7 @@
       <c r="Q22" s="0"/>
       <c r="V22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>13</v>
       </c>
@@ -25296,7 +25448,7 @@
       <c r="Q23" s="0"/>
       <c r="V23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>21</v>
       </c>
@@ -25332,7 +25484,7 @@
       <c r="Q24" s="0"/>
       <c r="V24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>5</v>
       </c>
@@ -25368,7 +25520,7 @@
       <c r="Q25" s="0"/>
       <c r="V25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -25404,7 +25556,7 @@
       <c r="Q26" s="0"/>
       <c r="V26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
@@ -25415,7 +25567,7 @@
       <c r="Q27" s="0"/>
       <c r="V27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
@@ -25426,7 +25578,7 @@
       <c r="Q28" s="0"/>
       <c r="V28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
@@ -25437,7 +25589,7 @@
       <c r="Q29" s="0"/>
       <c r="V29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
@@ -25448,7 +25600,7 @@
       <c r="Q30" s="0"/>
       <c r="V30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
@@ -25462,7 +25614,7 @@
       <c r="Q31" s="0"/>
       <c r="V31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
@@ -25485,7 +25637,7 @@
       <c r="Q32" s="0"/>
       <c r="V32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
@@ -25510,7 +25662,7 @@
       <c r="Q33" s="0"/>
       <c r="V33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
@@ -25521,7 +25673,7 @@
       <c r="Q34" s="0"/>
       <c r="V34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
@@ -25532,7 +25684,7 @@
       <c r="Q35" s="0"/>
       <c r="V35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
@@ -25543,7 +25695,7 @@
       <c r="Q36" s="0"/>
       <c r="V36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
@@ -25554,7 +25706,7 @@
       <c r="Q37" s="0"/>
       <c r="V37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
@@ -25565,7 +25717,7 @@
       <c r="Q38" s="0"/>
       <c r="V38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
@@ -25576,7 +25728,7 @@
       <c r="Q39" s="0"/>
       <c r="V39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
@@ -25587,7 +25739,7 @@
       <c r="Q40" s="0"/>
       <c r="V40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
@@ -25598,7 +25750,7 @@
       <c r="Q41" s="0"/>
       <c r="V41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
@@ -25609,7 +25761,7 @@
       <c r="Q42" s="0"/>
       <c r="V42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
@@ -25620,7 +25772,7 @@
       <c r="Q43" s="0"/>
       <c r="V43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
@@ -25631,7 +25783,7 @@
       <c r="Q44" s="0"/>
       <c r="V44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
@@ -25642,7 +25794,7 @@
       <c r="Q45" s="0"/>
       <c r="V45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
@@ -25653,7 +25805,7 @@
       <c r="Q46" s="0"/>
       <c r="V46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
@@ -25664,7 +25816,7 @@
       <c r="Q47" s="0"/>
       <c r="V47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
@@ -25675,7 +25827,7 @@
       <c r="Q48" s="0"/>
       <c r="V48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
@@ -25686,7 +25838,7 @@
       <c r="Q49" s="0"/>
       <c r="V49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
@@ -25707,7 +25859,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
@@ -25718,7 +25870,7 @@
       <c r="Q51" s="0"/>
       <c r="V51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
@@ -25729,7 +25881,7 @@
       <c r="Q52" s="0"/>
       <c r="V52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
@@ -25750,7 +25902,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
@@ -25771,7 +25923,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
@@ -25782,7 +25934,7 @@
       <c r="Q55" s="0"/>
       <c r="V55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
@@ -25793,7 +25945,7 @@
       <c r="Q56" s="0"/>
       <c r="V56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
@@ -25808,7 +25960,7 @@
       <c r="U57" s="11"/>
       <c r="V57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
@@ -25829,7 +25981,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
@@ -25840,7 +25992,7 @@
       <c r="Q59" s="0"/>
       <c r="V59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
@@ -25851,7 +26003,7 @@
       <c r="Q60" s="0"/>
       <c r="V60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
@@ -25866,7 +26018,7 @@
       <c r="U61" s="11"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
@@ -25881,7 +26033,7 @@
       <c r="U62" s="11"/>
       <c r="V62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
@@ -25892,7 +26044,7 @@
       <c r="Q63" s="0"/>
       <c r="V63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
@@ -25903,7 +26055,7 @@
       <c r="Q64" s="0"/>
       <c r="V64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
@@ -25914,7 +26066,7 @@
       <c r="Q65" s="0"/>
       <c r="V65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
@@ -25925,7 +26077,7 @@
       <c r="Q66" s="0"/>
       <c r="V66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
@@ -25936,7 +26088,7 @@
       <c r="Q67" s="0"/>
       <c r="V67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
@@ -25947,7 +26099,7 @@
       <c r="Q68" s="0"/>
       <c r="V68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
@@ -25962,7 +26114,7 @@
       <c r="Q69" s="0"/>
       <c r="V69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
@@ -25987,7 +26139,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
@@ -25998,7 +26150,7 @@
       <c r="Q71" s="0"/>
       <c r="V71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
@@ -26009,7 +26161,7 @@
       <c r="Q72" s="0"/>
       <c r="V72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
@@ -26024,7 +26176,7 @@
       <c r="Q73" s="0"/>
       <c r="V73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
@@ -26047,112 +26199,112 @@
       <c r="U74" s="11"/>
       <c r="V74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
       <c r="E75" s="0"/>
       <c r="J75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
       <c r="E76" s="0"/>
       <c r="J76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
       <c r="E77" s="0"/>
       <c r="J77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E78" s="0"/>
       <c r="J78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
       <c r="E79" s="0"/>
       <c r="J79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
       <c r="E80" s="0"/>
       <c r="J80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E81" s="0"/>
       <c r="J81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E82" s="0"/>
       <c r="J82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
       <c r="E83" s="0"/>
       <c r="J83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E84" s="0"/>
       <c r="J84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
       <c r="E85" s="0"/>
       <c r="J85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E86" s="0"/>
       <c r="J86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
       <c r="E87" s="0"/>
       <c r="J87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E88" s="0"/>
       <c r="J88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
       <c r="E89" s="0"/>
       <c r="J89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
@@ -26163,262 +26315,262 @@
       <c r="I90" s="9"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
@@ -26451,16 +26603,16 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0323886639676"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -26484,7 +26636,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -26532,7 +26684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>13</v>
       </c>
@@ -26579,7 +26731,7 @@
         <v>0.862899031577512</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>14</v>
       </c>
@@ -26626,7 +26778,7 @@
         <v>0.862899031577512</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>12</v>
       </c>
@@ -26674,7 +26826,7 @@
         <v>0.862786475659297</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
@@ -26722,7 +26874,7 @@
         <v>0.862258632700124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>9</v>
       </c>
@@ -26770,7 +26922,7 @@
         <v>0.8614740740238</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>10</v>
       </c>
@@ -26817,7 +26969,7 @@
         <v>0.8613506479193</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>16</v>
       </c>
@@ -26864,7 +27016,7 @@
         <v>0.861085283998311</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
@@ -26911,7 +27063,7 @@
         <v>0.857223224764658</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
@@ -26958,7 +27110,7 @@
         <v>0.85874475961309</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
@@ -27005,7 +27157,7 @@
         <v>0.856532179024059</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>15</v>
       </c>
@@ -27052,7 +27204,7 @@
         <v>0.854743963581984</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>4</v>
       </c>
@@ -27099,7 +27251,7 @@
         <v>0.853348147202416</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>3</v>
       </c>
@@ -27146,7 +27298,7 @@
         <v>0.842908498813443</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
@@ -27193,7 +27345,7 @@
         <v>0.840694640401531</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2</v>
       </c>
@@ -27240,7 +27392,7 @@
         <v>0.818370868721726</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -27287,32 +27439,32 @@
         <v>0.74873281034132</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
@@ -27325,7 +27477,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="12" t="s">
         <v>352</v>
       </c>
@@ -27342,7 +27494,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="12" t="s">
         <v>363</v>
       </c>
@@ -27362,7 +27514,7 @@
         <v>0.569943382307503</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
         <v>364</v>
       </c>
@@ -27405,29 +27557,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5182186234818"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="16.165991902834"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="30.2793522267206"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -27445,13 +27599,13 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -27497,15 +27651,18 @@
       <c r="Q2" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="25" t="s">
         <v>14</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="27" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="13" t="n">
@@ -27544,15 +27701,16 @@
       <c r="Q3" s="13" t="n">
         <v>0.867436465776778</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="28" t="n">
         <v>0.871439611531165</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="27" t="n">
         <v>11</v>
       </c>
       <c r="C4" s="13" t="n">
@@ -27593,15 +27751,18 @@
       <c r="Q4" s="13" t="n">
         <v>0.868238382734441</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="28" t="n">
         <v>0.870960391527845</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S4" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="27" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="13" t="n">
@@ -27642,15 +27803,18 @@
       <c r="Q5" s="13" t="n">
         <v>0.866668575066155</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="28" t="n">
         <v>0.87066229492074</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="29" t="s">
         <v>358</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -27689,15 +27853,18 @@
       <c r="Q6" s="0" t="n">
         <v>0.865149610836321</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="28" t="n">
         <v>0.869979026436277</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S6" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="27" t="n">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="n">
@@ -27736,15 +27903,18 @@
       <c r="Q7" s="13" t="n">
         <v>0.86100227992208</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="28" t="n">
         <v>0.869134406197307</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="27" t="n">
         <v>9</v>
       </c>
       <c r="C8" s="13" t="n">
@@ -27786,15 +27956,18 @@
       <c r="Q8" s="13" t="n">
         <v>0.869624121659171</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="28" t="n">
         <v>0.870028227150825</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S8" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="20" t="n">
         <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -27833,15 +28006,18 @@
       <c r="Q9" s="0" t="n">
         <v>0.860861643535853</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="28" t="n">
         <v>0.861715176300165</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S9" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="20" t="n">
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -27880,15 +28056,18 @@
       <c r="Q10" s="0" t="n">
         <v>0.86364904189615</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="21" t="n">
         <v>0.862588342496403</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="29" t="s">
         <v>358</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -27927,15 +28106,18 @@
       <c r="Q11" s="0" t="n">
         <v>0.856732050228536</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="28" t="n">
         <v>0.861111604515028</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S11" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="20" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -27974,15 +28156,18 @@
       <c r="Q12" s="0" t="n">
         <v>0.840649540006602</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="28" t="n">
         <v>0.856443676962907</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="20" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -28021,15 +28206,18 @@
       <c r="Q13" s="0" t="n">
         <v>0.848703065604089</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="21" t="n">
         <v>0.858114761785381</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="20" t="n">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -28068,142 +28256,711 @@
       <c r="Q14" s="0" t="n">
         <v>0.864391899436629</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="21" t="n">
         <v>0.85692666241863</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>367</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="20" t="n">
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.787229219638892</v>
+        <v>0.750794288525109</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.810852847358382</v>
+        <v>0.784642490614561</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.809308251647812</v>
+        <v>0.784119591068289</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.849282826062317</v>
+        <v>0.839356005395801</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.812459859053123</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>0.813826600752105</v>
+        <v>0.817386111751561</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0.795259697471064</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.817336660489141</v>
+        <v>0.820722864497104</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.801274807232621</v>
+        <v>0.801231348409221</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.824624765153644</v>
+        <v>0.817944528882859</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.785541872358713</v>
+        <v>0.771316310577832</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.798081368770944</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>0.805371894801013</v>
+        <v>0.796600804939687</v>
+      </c>
+      <c r="R15" s="21" t="n">
+        <v>0.801563171461341</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>367</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.866310430911761</v>
+        <v>0.763323356837675</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.860792445493736</v>
+        <v>0.775284660258436</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.853133883674169</v>
+        <v>0.798800907933369</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.893022666916716</v>
+        <v>0.837951424638722</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.856079313285949</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>0.865867748056466</v>
+        <v>0.804822970787083</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0.796036664091057</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.808834297181582</v>
+        <v>0.818763989886901</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.808362256413144</v>
+        <v>0.814675244453621</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.826437712289915</v>
+        <v>0.816054132375765</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.80004957924543</v>
+        <v>0.777348390571209</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.803037739018087</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0.809344316829631</v>
+        <v>0.795913773880885</v>
+      </c>
+      <c r="R16" s="21" t="n">
+        <v>0.804551106233676</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.761367562783953</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.779115851392744</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.806774799637516</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.839361837057108</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.798202623919603</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.796964534958185</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.823986086191727</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.805302657768467</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.81512764498342</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.779211595566726</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.799511452732919</v>
+      </c>
+      <c r="R17" s="21" t="n">
+        <v>0.804627887448652</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.761925167413379</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.783336211391828</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.799619677109781</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.829984289846173</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.814911549848998</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.797955379122032</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.820792209776806</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.809312162250089</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.81229384956479</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.77751768750043</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.786255867470018</v>
+      </c>
+      <c r="R18" s="21" t="n">
+        <v>0.801234355312427</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="B19" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.775224817195286</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.77920513580987</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.796213764396781</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.862058166537993</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.814245812419335</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0.805389539271853</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.810066087931783</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.808970474805335</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.811506845514466</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.769524636961354</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.790172590327457</v>
+      </c>
+      <c r="R19" s="21" t="n">
+        <v>0.798048127108079</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.787229219638892</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.810852847358382</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.809308251647812</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.849282826062317</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.812459859053123</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0.813826600752105</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.817336660489141</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.801274807232621</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.824624765153644</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.785541872358713</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.798081368770944</v>
+      </c>
+      <c r="R20" s="21" t="n">
+        <v>0.805371894801013</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.841149149587959</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.836907972681804</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.826790065452193</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.87972036565761</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.838601747066043</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.844633860089122</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.807896344270255</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.810059274344794</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.826694267749891</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.79709990438769</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.803469308084332</v>
+      </c>
+      <c r="R21" s="21" t="n">
+        <v>0.809043819767392</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.842162983375555</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.844035241783453</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.820625439029934</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.878400244329702</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.83983685106105</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0.845012151915939</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.805508959512152</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.809050062558205</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.829623058996618</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.796920557385322</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.80392367213591</v>
+      </c>
+      <c r="R22" s="21" t="n">
+        <v>0.809005262117641</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.835406219258159</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.84262595167089</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.824754952339936</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.881871709579968</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.844809849947806</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0.845893736559352</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.813569338730264</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.806263831711957</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.823566644209634</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.79640941355145</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.797459860539574</v>
+      </c>
+      <c r="R23" s="21" t="n">
+        <v>0.807453817748576</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.846707050317202</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.844254241014778</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.825274728634829</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.880749707511027</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.835495860249408</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0.846496317545449</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.805861466300647</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.806545936739647</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.827076755985243</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.797615361024919</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.802989973333384</v>
+      </c>
+      <c r="R24" s="21" t="n">
+        <v>0.808017898676768</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.840906704805272</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.84408165648397</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.833249190727651</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.882954521756148</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.832070578220459</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0.8466525303987</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0.808203980359395</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.803023032527875</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.822834724391951</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.794103830379434</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0.808097800495449</v>
+      </c>
+      <c r="R25" s="21" t="n">
+        <v>0.807252673630821</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.866310430911761</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.860792445493736</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.853133883674169</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.893022666916716</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.856079313285949</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0.865867748056466</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0.808834297181582</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.808362256413144</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.826437712289915</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.80004957924543</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>0.803037739018087</v>
+      </c>
+      <c r="R26" s="21" t="n">
+        <v>0.809344316829631</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.899263462461563</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.94089943251416</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.961709004228858</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.924490876477185</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.9601771213995</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.937307979416253</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.760206364912046</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.719871683856041</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.701740901497945</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.710826908386623</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0.69914144603724</v>
+      </c>
+      <c r="R27" s="21" t="n">
+        <v>0.718357460937979</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.950735160176704</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.949916762416172</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.933565719358599</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.927472617370254</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.966915223461813</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.945721096556708</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.758786189478662</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.724804230679316</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.742418227776618</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.72293408232391</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>0.724286818078067</v>
+      </c>
+      <c r="R28" s="21" t="n">
+        <v>0.734645909667314</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28211,7 +28968,7 @@
       <c r="G30" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R24"/>
+  <autoFilter ref="A2:S28"/>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:K1"/>
@@ -28236,20 +28993,20 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8016194331984"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0323886639676"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>365</v>
       </c>
@@ -28285,7 +29042,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -28330,29 +29087,28 @@
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="13" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="F3" s="13" t="n">
         <v>0.625477725169</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="13" t="n">
         <v>0.632761252077</v>
       </c>
       <c r="H3" s="13" t="n">
         <v>0.62863741072</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="13" t="n">
         <v>0.770053721595</v>
       </c>
       <c r="J3" s="13" t="n">
@@ -28362,20 +29118,19 @@
         <f aca="false">(F3+G3+H3+I3+J3)/5</f>
         <v>0.6681897547586</v>
       </c>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="13" t="n">
         <v>0.872761111937</v>
       </c>
       <c r="N3" s="13" t="n">
         <v>0.873374199015</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="13" t="n">
         <v>0.867144958343</v>
       </c>
       <c r="P3" s="13" t="n">
         <v>0.791330656848</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="13" t="n">
         <v>0.852664260987</v>
       </c>
       <c r="R3" s="1" t="n">
@@ -28383,7 +29138,7 @@
         <v>0.851455037426</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
@@ -28393,8 +29148,8 @@
       <c r="C4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>370</v>
+      <c r="D4" s="32" t="s">
+        <v>375</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.62495637362</v>
@@ -28436,7 +29191,7 @@
         <v>0.8466413498386</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -28447,7 +29202,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.755037244632</v>
@@ -28488,7 +29243,7 @@
         <v>0.8137937629284</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>4</v>
       </c>
@@ -28499,7 +29254,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.795295758467</v>
@@ -28540,13 +29295,13 @@
         <v>0.7860680087928</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
@@ -28554,13 +29309,13 @@
       <c r="C8" s="13"/>
       <c r="K8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>8</v>
       </c>
@@ -28578,14 +29333,14 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K11" s="0"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>10</v>
       </c>
@@ -28605,77 +29360,73 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="12"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="0"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="12"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="0"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="19"/>
       <c r="G30" s="14"/>
     </row>
